--- a/2269 HK WuXi Biologics.xlsx
+++ b/2269 HK WuXi Biologics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3786B7B-FEA9-4D92-B917-042ECCDA8D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3CAAA0-2156-4A9B-B168-951E9C651D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65310" yWindow="1335" windowWidth="24855" windowHeight="19110" activeTab="1" xr2:uid="{99E273BC-8019-4094-8E75-1294069FC9F9}"/>
+    <workbookView xWindow="-50850" yWindow="1095" windowWidth="31725" windowHeight="17595" activeTab="1" xr2:uid="{99E273BC-8019-4094-8E75-1294069FC9F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Price HKD</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>18 facilities</t>
+  </si>
+  <si>
+    <t>10 China</t>
+  </si>
+  <si>
+    <t>3 US</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Late-Phase</t>
+  </si>
+  <si>
+    <t>Ongoing CMO</t>
   </si>
 </sst>
 </file>
@@ -179,12 +197,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -214,6 +231,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35092</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35092</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120316</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CF4877-28D8-E687-2E55-4360E8C4BAF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5870408" y="45118"/>
+          <a:ext cx="0" cy="3925303"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09489137-13D8-4399-9916-3B3FC4374B6A}">
-  <dimension ref="I2:K9"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -525,7 +597,7 @@
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
         <v>0</v>
       </c>
@@ -533,28 +605,34 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="3" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>4263.5283170000002</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
       <c r="I4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <f>+J2*J3</f>
         <v>205928.41771109999</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
@@ -562,22 +640,25 @@
         <f>8135.29+335.57+218.241+1393.441</f>
         <v>10082.542000000001</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="2">
         <v>2347.1640000000002</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
         <v>6</v>
       </c>
@@ -586,7 +667,7 @@
         <v>198193.03971109999</v>
       </c>
     </row>
-    <row r="9" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="J9" s="2"/>
     </row>
   </sheetData>
@@ -597,50 +678,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C74915-EFB4-44A0-922C-14F2DE10C3FB}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="5"/>
+    <col min="3" max="10" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -648,28 +729,28 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <v>4406.7539999999999</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
         <v>7206.44</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
         <v>2109.9209999999998</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>3793.2330000000002</v>
       </c>
     </row>
@@ -677,12 +758,12 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <f>+G3-G4</f>
         <v>2296.8330000000001</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f>+I3-I4</f>
         <v>3413.2069999999994</v>
       </c>
@@ -691,63 +772,63 @@
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
         <v>60.356000000000002</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
         <v>67.102999999999994</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <v>347.64</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
         <v>520.11199999999997</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>115.375</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
         <v>271.12799999999999</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
         <f>SUM(G6:G8)</f>
         <v>523.37099999999998</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f>SUM(I6:I8)</f>
         <v>858.34299999999985</v>
       </c>
@@ -756,12 +837,12 @@
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
         <f>G5-G9</f>
         <v>1773.462</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f>I5-I9</f>
         <v>2554.8639999999996</v>
       </c>
@@ -770,11 +851,11 @@
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <v>-20.873999999999999</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>-22.661000000000001</v>
       </c>
     </row>
@@ -782,12 +863,12 @@
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
         <f>+G10+G11</f>
         <v>1752.588</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f>+I10+I11</f>
         <v>2532.2029999999995</v>
       </c>
@@ -796,11 +877,11 @@
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
         <v>308.91000000000003</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>308.91000000000003</v>
       </c>
     </row>
@@ -808,12 +889,12 @@
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
         <f>+G12-G13</f>
         <v>1443.6779999999999</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f>+I12-I13</f>
         <v>2223.2929999999997</v>
       </c>
@@ -822,7 +903,7 @@
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <f>+I3/G3-1</f>
         <v>0.63531706103857855</v>
       </c>
@@ -831,11 +912,11 @@
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f>G5/G3</f>
         <v>0.52120744656951579</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <f>I5/I3</f>
         <v>0.47363288947108412</v>
       </c>
@@ -844,12 +925,36 @@
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>798.005</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
         <v>1457.9179999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="4">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -857,5 +962,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{823F2551-A213-47B6-9DC3-09C966B1AFC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/2269 HK WuXi Biologics.xlsx
+++ b/2269 HK WuXi Biologics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3CAAA0-2156-4A9B-B168-951E9C651D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B275FE58-D47B-42C4-ACF6-86A2AD7EB3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50850" yWindow="1095" windowWidth="31725" windowHeight="17595" activeTab="1" xr2:uid="{99E273BC-8019-4094-8E75-1294069FC9F9}"/>
+    <workbookView xWindow="-29205" yWindow="1350" windowWidth="27645" windowHeight="18960" xr2:uid="{99E273BC-8019-4094-8E75-1294069FC9F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>Price HKD</t>
   </si>
@@ -148,6 +148,90 @@
   </si>
   <si>
     <t>Ongoing CMO</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>DP5</t>
+  </si>
+  <si>
+    <t>DP3</t>
+  </si>
+  <si>
+    <t>ADC facility</t>
+  </si>
+  <si>
+    <t>sqm</t>
+  </si>
+  <si>
+    <t>MFG1</t>
+  </si>
+  <si>
+    <t>biologics</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>MFG2</t>
+  </si>
+  <si>
+    <t>MFG3</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>MFG4</t>
+  </si>
+  <si>
+    <t>MFG5</t>
+  </si>
+  <si>
+    <t>largest single-use bioreactor-based cGMP biologics facility</t>
+  </si>
+  <si>
+    <t>MFG13</t>
+  </si>
+  <si>
+    <t>Hangzhou</t>
+  </si>
+  <si>
+    <t>MFG14</t>
+  </si>
+  <si>
+    <t>MFG20</t>
+  </si>
+  <si>
+    <t>MFG21</t>
+  </si>
+  <si>
+    <t>Suzhou</t>
+  </si>
+  <si>
+    <t>DP1</t>
+  </si>
+  <si>
+    <t>DP2</t>
+  </si>
+  <si>
+    <t>DP4</t>
+  </si>
+  <si>
+    <t>DP7</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>DP8</t>
+  </si>
+  <si>
+    <t>DP9</t>
+  </si>
+  <si>
+    <t>DP11</t>
   </si>
 </sst>
 </file>
@@ -245,7 +329,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>35092</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>120316</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -585,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09489137-13D8-4399-9916-3B3FC4374B6A}">
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -598,6 +682,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
       <c r="I2" t="s">
         <v>0</v>
       </c>
@@ -606,6 +693,12 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
@@ -620,6 +713,9 @@
       <c r="B4" t="s">
         <v>31</v>
       </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -633,6 +729,15 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>6000</v>
+      </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
@@ -648,6 +753,12 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
@@ -659,6 +770,9 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
@@ -667,8 +781,114 @@
         <v>198193.03971109999</v>
       </c>
     </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
       <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -678,13 +898,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C74915-EFB4-44A0-922C-14F2DE10C3FB}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -725,235 +945,252 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>12465</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
+        <v>18467</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
         <v>4406.7539999999999</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
         <v>7206.44</v>
       </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <v>2109.9209999999998</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3793.2330000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
-        <f>+G3-G4</f>
-        <v>2296.8330000000001</v>
-      </c>
-      <c r="I5" s="5">
-        <f>+I3-I4</f>
-        <v>3413.2069999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
-        <v>60.356000000000002</v>
-      </c>
-      <c r="H6" s="5"/>
+        <v>2109.9209999999998</v>
+      </c>
       <c r="I6" s="5">
-        <v>67.102999999999994</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+        <v>3793.2330000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
-        <v>347.64</v>
-      </c>
-      <c r="H7" s="5"/>
+        <f>+G5-G6</f>
+        <v>2296.8330000000001</v>
+      </c>
       <c r="I7" s="5">
-        <v>520.11199999999997</v>
-      </c>
-      <c r="J7" s="5"/>
+        <f>+I5-I6</f>
+        <v>3413.2069999999994</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
-        <v>115.375</v>
+        <v>60.356000000000002</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5">
-        <v>271.12799999999999</v>
+        <v>67.102999999999994</v>
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
-        <f>SUM(G6:G8)</f>
-        <v>523.37099999999998</v>
-      </c>
+        <v>347.64</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5">
-        <f>SUM(I6:I8)</f>
-        <v>858.34299999999985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>520.11199999999997</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
-        <f>G5-G9</f>
-        <v>1773.462</v>
-      </c>
+        <v>115.375</v>
+      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5">
-        <f>I5-I9</f>
-        <v>2554.8639999999996</v>
-      </c>
+        <v>271.12799999999999</v>
+      </c>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
-        <v>-20.873999999999999</v>
+        <f>SUM(G8:G10)</f>
+        <v>523.37099999999998</v>
       </c>
       <c r="I11" s="5">
-        <v>-22.661000000000001</v>
+        <f>SUM(I8:I10)</f>
+        <v>858.34299999999985</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
-        <f>+G10+G11</f>
-        <v>1752.588</v>
+        <f>G7-G11</f>
+        <v>1773.462</v>
       </c>
       <c r="I12" s="5">
-        <f>+I10+I11</f>
-        <v>2532.2029999999995</v>
+        <f>I7-I11</f>
+        <v>2554.8639999999996</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
-        <v>308.91000000000003</v>
+        <v>-20.873999999999999</v>
       </c>
       <c r="I13" s="5">
-        <v>308.91000000000003</v>
+        <v>-22.661000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
-        <f>+G12-G13</f>
-        <v>1443.6779999999999</v>
+        <f>+G12+G13</f>
+        <v>1752.588</v>
       </c>
       <c r="I14" s="5">
-        <f>+I12-I13</f>
-        <v>2223.2929999999997</v>
+        <f>+I12+I13</f>
+        <v>2532.2029999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>308.91000000000003</v>
+      </c>
+      <c r="I15" s="5">
+        <v>308.91000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <f>+G14-G15</f>
+        <v>1443.6779999999999</v>
+      </c>
+      <c r="I16" s="5">
+        <f>+I14-I15</f>
+        <v>2223.2929999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="7">
-        <f>+I3/G3-1</f>
+      <c r="I18" s="7">
+        <f>+I5/G5-1</f>
         <v>0.63531706103857855</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="7">
-        <f>G5/G3</f>
-        <v>0.52120744656951579</v>
-      </c>
-      <c r="I17" s="7">
-        <f>I5/I3</f>
-        <v>0.47363288947108412</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="7">
+        <f>G7/G5</f>
+        <v>0.52120744656951579</v>
+      </c>
+      <c r="I19" s="7">
+        <f>I7/I5</f>
+        <v>0.47363288947108412</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G21" s="5">
         <v>798.005</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
         <v>1457.9179999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="4">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="4">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H26" s="4">
         <v>9</v>
       </c>
     </row>
@@ -962,6 +1199,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{823F2551-A213-47B6-9DC3-09C966B1AFC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2269 HK WuXi Biologics.xlsx
+++ b/2269 HK WuXi Biologics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B275FE58-D47B-42C4-ACF6-86A2AD7EB3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3B437C-55C8-421C-A7C2-DC376F6990EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29205" yWindow="1350" windowWidth="27645" windowHeight="18960" xr2:uid="{99E273BC-8019-4094-8E75-1294069FC9F9}"/>
+    <workbookView xWindow="105" yWindow="3000" windowWidth="24480" windowHeight="20415" activeTab="1" xr2:uid="{99E273BC-8019-4094-8E75-1294069FC9F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Price HKD</t>
   </si>
@@ -232,12 +232,15 @@
   </si>
   <si>
     <t>DP11</t>
+  </si>
+  <si>
+    <t>RMB 000s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -281,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -299,13 +302,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F50BE9FE-48AD-42D4-96F8-8BB4BF1D039A}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -347,6 +354,56 @@
         <a:xfrm>
           <a:off x="5870408" y="45118"/>
           <a:ext cx="0" cy="3925303"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>24319</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>24319</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97276</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E039E0-4E55-9A8A-2FAB-A58D6897858F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11304351" y="28372"/>
+          <a:ext cx="0" cy="3959968"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -671,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09489137-13D8-4399-9916-3B3FC4374B6A}">
   <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -689,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>48.3</v>
+        <v>44.85</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -721,7 +778,7 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>205928.41771109999</v>
+        <v>191219.24501745001</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -778,7 +835,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>198193.03971109999</v>
+        <v>183483.86701744999</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -898,13 +955,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C74915-EFB4-44A0-922C-14F2DE10C3FB}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -914,12 +971,15 @@
     <col min="3" max="10" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -944,8 +1004,79 @@
       <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>2018</v>
+      </c>
+      <c r="O2">
+        <f>+N2+1</f>
+        <v>2019</v>
+      </c>
+      <c r="P2">
+        <f>+O2+1</f>
+        <v>2020</v>
+      </c>
+      <c r="Q2">
+        <f>+P2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="R2">
+        <f>+Q2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="S2">
+        <f>+R2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:AE2" si="0">+S2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
@@ -962,7 +1093,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -978,8 +1109,23 @@
         <v>7206.44</v>
       </c>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N5" s="3">
+        <v>2534.453</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3983.6869999999999</v>
+      </c>
+      <c r="P5" s="3">
+        <v>5612.384</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>10290.5</v>
+      </c>
+      <c r="R5" s="3">
+        <v>15268.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -990,8 +1136,16 @@
       <c r="I6" s="5">
         <v>3793.2330000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
+        <f>+R5-R7</f>
+        <v>8544.6460000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1004,8 +1158,23 @@
         <f>+I5-I6</f>
         <v>3413.2069999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="2">
+        <v>1017.755</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1658.829</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2532.9659999999999</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4828.8969999999999</v>
+      </c>
+      <c r="R7" s="2">
+        <v>6724.0140000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +1191,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1039,7 +1208,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1056,7 +1225,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1070,7 +1239,7 @@
         <v>858.34299999999985</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1084,7 +1253,7 @@
         <v>2554.8639999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1096,7 +1265,7 @@
         <v>-22.661000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1110,7 +1279,7 @@
         <v>2532.2029999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1291,7 @@
         <v>308.91000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1135,8 +1304,23 @@
         <f>+I14-I15</f>
         <v>2223.2929999999997</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N16" s="2">
+        <v>751.68399999999997</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1204.9169999999999</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1721.99</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3316.3879999999999</v>
+      </c>
+      <c r="R16" s="2">
+        <v>4925.3130000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1144,8 +1328,24 @@
         <f>+I5/G5-1</f>
         <v>0.63531706103857855</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="O18" s="10">
+        <f>O5/N5-1</f>
+        <v>0.57181332618912251</v>
+      </c>
+      <c r="P18" s="10">
+        <f>P5/O5-1</f>
+        <v>0.40884160828900473</v>
+      </c>
+      <c r="Q18" s="10">
+        <f>Q5/P5-1</f>
+        <v>0.83353455501262919</v>
+      </c>
+      <c r="R18" s="10">
+        <f>R5/Q5-1</f>
+        <v>0.48376269374665948</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1157,8 +1357,28 @@
         <f>I7/I5</f>
         <v>0.47363288947108412</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N19" s="9">
+        <f>+N7/N5</f>
+        <v>0.4015679122871878</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" ref="O19:R19" si="1">+O7/O5</f>
+        <v>0.41640545554909308</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.45131730116827357</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.46925776201350761</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.44038009884298951</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1170,7 +1390,7 @@
         <v>1457.9179999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>34</v>
       </c>
@@ -1178,7 +1398,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -1186,7 +1406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>36</v>
       </c>
